--- a/PTUD_NHOM3/Kế hoạch phát triển ứng dụng.xlsx
+++ b/PTUD_NHOM3/Kế hoạch phát triển ứng dụng.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ngo Dinh Tuan\Desktop\nhom3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\nhom3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -952,17 +952,17 @@
   <dimension ref="A2:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="26.875" customWidth="1"/>
+    <col min="2" max="2" width="36.625" customWidth="1"/>
+    <col min="3" max="3" width="18.75" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="6" max="6" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1185,7 +1185,7 @@
         <v>2</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
